--- a/files/Ex2 report/אלגוריתם 2.xlsx
+++ b/files/Ex2 report/אלגוריתם 2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mixmind\eclipse-workspace\OOP matala\files\OOP - report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mixmind\eclipse-workspace\OOP matala\files\Ex2 report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="24">
   <si>
     <t>Time</t>
   </si>
@@ -91,12 +91,18 @@
   <si>
     <t xml:space="preserve">abs - השוואה בין העמודות </t>
   </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,8 +263,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,6 +455,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -606,7 +625,7 @@
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -614,6 +633,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="19" fillId="34" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="19" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
@@ -970,13 +993,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:T36"/>
+  <dimension ref="A2:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="15.29296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.29296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.5">
       <c r="D2" s="2" t="s">
@@ -1058,15 +1089,15 @@
         <v>8</v>
       </c>
       <c r="J4" s="3">
-        <f>ABS(C4:C36 - P4:P36)</f>
+        <f>ABS(C4:C35 - P4:P35)</f>
         <v>2.1160087270288841E-4</v>
       </c>
       <c r="K4" s="3">
-        <f>ABS(D4:D36 - Q4:Q36)</f>
+        <f>ABS(D4:D35 - Q4:Q35)</f>
         <v>2.7503791930172383E-4</v>
       </c>
       <c r="L4" s="3">
-        <f>ABS(E4:E36 - R4:R36)</f>
+        <f>ABS(E4:E35 - R4:R35)</f>
         <v>5.3580828410390495</v>
       </c>
       <c r="N4" s="1">
@@ -1114,15 +1145,15 @@
         <v>8</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" ref="J5:L5" si="0">ABS(C5:C37 - P5:P37)</f>
+        <f>ABS(C5:C37 - P5:P37)</f>
         <v>2.7506930670284646E-4</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS(D5:D37 - Q5:Q37)</f>
         <v>7.2052275100986662E-5</v>
       </c>
       <c r="L5" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS(E5:E37 - R5:R37)</f>
         <v>2.2489223134549547</v>
       </c>
       <c r="N5" s="1">
@@ -1170,15 +1201,15 @@
         <v>9</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" ref="J6:L6" si="1">ABS(C6:C38 - P6:P38)</f>
+        <f t="shared" ref="J6:L6" si="0">ABS(C6:C38 - P6:P38)</f>
         <v>3.5041738809837852E-4</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.4756761110088519E-4</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10.13778562357902</v>
       </c>
       <c r="N6" s="1">
@@ -1226,15 +1257,15 @@
         <v>8</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" ref="J7:L7" si="2">ABS(C7:C39 - P7:P39)</f>
+        <f t="shared" ref="J7:L7" si="1">ABS(C7:C39 - P7:P39)</f>
         <v>6.3937514109824178E-4</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.7462150584037772E-3</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.0655264191849483</v>
       </c>
       <c r="N7" s="1">
@@ -1282,15 +1313,15 @@
         <v>9</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" ref="J8:L8" si="3">ABS(C8:C40 - P8:P40)</f>
+        <f t="shared" ref="J8:L8" si="2">ABS(C8:C40 - P8:P40)</f>
         <v>2.2819763769632573E-4</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.3383226901692069E-5</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.3332144513669846</v>
       </c>
       <c r="N8" s="1">
@@ -1338,15 +1369,15 @@
         <v>10</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" ref="J9:L9" si="4">ABS(C9:C41 - P9:P41)</f>
+        <f t="shared" ref="J9:L9" si="3">ABS(C9:C41 - P9:P41)</f>
         <v>1.0400597739845807E-4</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.6680653030034591E-6</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6.3951400007230177</v>
       </c>
       <c r="N9" s="1">
@@ -1394,15 +1425,15 @@
         <v>11</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" ref="J10:L10" si="5">ABS(C10:C42 - P10:P42)</f>
+        <f t="shared" ref="J10:L10" si="4">ABS(C10:C42 - P10:P42)</f>
         <v>6.4814176795380263E-5</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.8085029189669513E-4</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.964210720297956</v>
       </c>
       <c r="N10" s="1">
@@ -1450,15 +1481,15 @@
         <v>11</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" ref="J11:L11" si="6">ABS(C11:C43 - P11:P43)</f>
+        <f t="shared" ref="J11:L11" si="5">ABS(C11:C43 - P11:P43)</f>
         <v>3.4537961902003644E-5</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.5229734379573756E-4</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.9531368736800232</v>
       </c>
       <c r="N11" s="1">
@@ -1506,15 +1537,15 @@
         <v>9</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" ref="J12:L12" si="7">ABS(C12:C44 - P12:P44)</f>
+        <f t="shared" ref="J12:L12" si="6">ABS(C12:C44 - P12:P44)</f>
         <v>1.2649222639993241E-4</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4.8952276680580553E-4</v>
       </c>
       <c r="L12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.3876259894329905</v>
       </c>
       <c r="N12" s="1">
@@ -1562,15 +1593,15 @@
         <v>10</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" ref="J13:L13" si="8">ABS(C13:C45 - P13:P45)</f>
+        <f t="shared" ref="J13:L13" si="7">ABS(C13:C45 - P13:P45)</f>
         <v>7.6567682967265682E-6</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.0492937008166336E-6</v>
       </c>
       <c r="L13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.7416046628439972</v>
       </c>
       <c r="N13" s="1">
@@ -1618,15 +1649,15 @@
         <v>12</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" ref="J14:L14" si="9">ABS(C14:C46 - P14:P46)</f>
+        <f t="shared" ref="J14:L14" si="8">ABS(C14:C46 - P14:P46)</f>
         <v>2.3634278710460421E-4</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3.6848913660492144E-4</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.3520755975910106</v>
       </c>
       <c r="N14" s="1">
@@ -1674,15 +1705,15 @@
         <v>9</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" ref="J15:L15" si="10">ABS(C15:C47 - P15:P47)</f>
+        <f t="shared" ref="J15:L15" si="9">ABS(C15:C47 - P15:P47)</f>
         <v>2.3679756179717515E-4</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5.5782644103885559E-5</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.6458628430809767</v>
       </c>
       <c r="N15" s="1">
@@ -1730,15 +1761,15 @@
         <v>9</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" ref="J16:L16" si="11">ABS(C16:C48 - P16:P48)</f>
+        <f t="shared" ref="J16:L16" si="10">ABS(C16:C48 - P16:P48)</f>
         <v>3.0282937250092345E-4</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>6.1615090429967267E-4</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.22453760182895621</v>
       </c>
       <c r="N16" s="1">
@@ -1786,15 +1817,15 @@
         <v>10</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" ref="J17:L17" si="12">ABS(C17:C49 - P17:P49)</f>
+        <f t="shared" ref="J17:L17" si="11">ABS(C17:C49 - P17:P49)</f>
         <v>2.8692901239679713E-4</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7.4367082994797329E-5</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.33963520439806416</v>
       </c>
       <c r="N17" s="1">
@@ -1842,15 +1873,15 @@
         <v>13</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" ref="J18:L18" si="13">ABS(C18:C50 - P18:P50)</f>
+        <f t="shared" ref="J18:L18" si="12">ABS(C18:C50 - P18:P50)</f>
         <v>2.3829735079772263E-4</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>4.068518263977694E-4</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>9.3802879426409618</v>
       </c>
       <c r="N18" s="1">
@@ -1898,15 +1929,15 @@
         <v>9</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" ref="J19:L19" si="14">ABS(C19:C51 - P19:P51)</f>
+        <f t="shared" ref="J19:L19" si="13">ABS(C19:C51 - P19:P51)</f>
         <v>7.3950631299624092E-4</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>6.8780551710290183E-4</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>12.842186679173892</v>
       </c>
       <c r="N19" s="1">
@@ -1954,15 +1985,15 @@
         <v>14</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" ref="J20:L20" si="15">ABS(C20:C52 - P20:P52)</f>
+        <f t="shared" ref="J20:L20" si="14">ABS(C20:C52 - P20:P52)</f>
         <v>2.0461818301953372E-5</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>3.9178222195346279E-5</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>5.2077839892859856</v>
       </c>
       <c r="N20" s="1">
@@ -2010,15 +2041,15 @@
         <v>9</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" ref="J21:L21" si="16">ABS(C21:C53 - P21:P53)</f>
+        <f t="shared" ref="J21:L21" si="15">ABS(C21:C53 - P21:P53)</f>
         <v>5.208918190007239E-4</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>4.099105703048167E-4</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>6.4601793825889899</v>
       </c>
       <c r="N21" s="1">
@@ -2066,15 +2097,15 @@
         <v>9</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" ref="J22:L22" si="17">ABS(C22:C54 - P22:P54)</f>
+        <f t="shared" ref="J22:L22" si="16">ABS(C22:C54 - P22:P54)</f>
         <v>8.9534997300688701E-5</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>3.3879889019772236E-4</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>14.496303975346905</v>
       </c>
       <c r="N22" s="1">
@@ -2122,15 +2153,15 @@
         <v>10</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" ref="J23:L23" si="18">ABS(C23:C55 - P23:P55)</f>
+        <f t="shared" ref="J23:L23" si="17">ABS(C23:C55 - P23:P55)</f>
         <v>1.6873150039486973E-4</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2.8215861259894837E-4</v>
       </c>
       <c r="L23" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>4.0174885394769717</v>
       </c>
       <c r="N23" s="1">
@@ -2178,15 +2209,15 @@
         <v>10</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" ref="J24:L24" si="19">ABS(C24:C56 - P24:P56)</f>
+        <f t="shared" ref="J24:L24" si="18">ABS(C24:C56 - P24:P56)</f>
         <v>3.4169221189728205E-4</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>7.7267873319897262E-4</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>2.4998740156579515</v>
       </c>
       <c r="N24" s="1">
@@ -2234,15 +2265,15 @@
         <v>15</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" ref="J25:L25" si="20">ABS(C25:C57 - P25:P57)</f>
+        <f t="shared" ref="J25:L25" si="19">ABS(C25:C57 - P25:P57)</f>
         <v>1.6640618769514504E-4</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1.8384245959879308E-4</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1.2660289544229499</v>
       </c>
       <c r="N25" s="1">
@@ -2290,15 +2321,15 @@
         <v>10</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" ref="J26:L26" si="21">ABS(C26:C58 - P26:P58)</f>
+        <f t="shared" ref="J26:L26" si="20">ABS(C26:C58 - P26:P58)</f>
         <v>3.7732885800778604E-5</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1.0047567810289593E-4</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>4.4685407028719055</v>
       </c>
       <c r="N26" s="1">
@@ -2346,15 +2377,15 @@
         <v>9</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" ref="J27:L27" si="22">ABS(C27:C59 - P27:P59)</f>
+        <f t="shared" ref="J27:L27" si="21">ABS(C27:C59 - P27:P59)</f>
         <v>5.303269959000545E-4</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>5.7365077049809088E-4</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.7005054349809825</v>
       </c>
       <c r="N27" s="1">
@@ -2402,15 +2433,15 @@
         <v>16</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" ref="J28:L28" si="23">ABS(C28:C60 - P28:P60)</f>
+        <f t="shared" ref="J28:L28" si="22">ABS(C28:C60 - P28:P60)</f>
         <v>3.6310797550243024E-4</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1.4925399960219465E-4</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>3.4806938548230164</v>
       </c>
       <c r="N28" s="1">
@@ -2458,15 +2489,15 @@
         <v>9</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" ref="J29:L29" si="24">ABS(C29:C61 - P29:P61)</f>
+        <f t="shared" ref="J29:L29" si="23">ABS(C29:C61 - P29:P61)</f>
         <v>1.2778696349613483E-4</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>1.3607593199793655E-4</v>
       </c>
       <c r="L29" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.19971407105094841</v>
       </c>
       <c r="N29" s="1">
@@ -2514,15 +2545,15 @@
         <v>9</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" ref="J30:L30" si="25">ABS(C30:C62 - P30:P62)</f>
+        <f t="shared" ref="J30:L30" si="24">ABS(C30:C62 - P30:P62)</f>
         <v>4.7612677704478301E-5</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1.6081860530192671E-4</v>
       </c>
       <c r="L30" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>7.0242968854760193</v>
       </c>
       <c r="N30" s="1">
@@ -2570,15 +2601,15 @@
         <v>10</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" ref="J31:L31" si="26">ABS(C31:C63 - P31:P63)</f>
+        <f t="shared" ref="J31:L31" si="25">ABS(C31:C63 - P31:P63)</f>
         <v>5.4116659020309044E-4</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>4.6828268860110711E-4</v>
       </c>
       <c r="L31" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1.7640812679919691</v>
       </c>
       <c r="N31" s="1">
@@ -2611,31 +2642,31 @@
         <v>7</v>
       </c>
       <c r="C32" s="5">
-        <v>0</v>
+        <v>32.103941666769799</v>
       </c>
       <c r="D32" s="5">
-        <v>0</v>
+        <v>35.208466874348296</v>
       </c>
       <c r="E32" s="5">
-        <v>0</v>
+        <v>691.99634918653396</v>
       </c>
       <c r="F32" s="5">
         <v>1</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" ref="J32:L32" si="27">ABS(C32:C64 - P32:P64)</f>
-        <v>32.1025232821369</v>
+        <f>ABS(C32:C65 - P32:P65)</f>
+        <v>3.7990270369903101E-4</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="27"/>
-        <v>35.207323309149302</v>
+        <f>ABS(D32:D65 - Q32:Q65)</f>
+        <v>3.1886903229860764E-4</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="27"/>
-        <v>698.63501509066396</v>
+        <f>ABS(E32:E65 - R32:R65)</f>
+        <v>2.064050007852984</v>
       </c>
       <c r="N32" s="1">
         <v>43074.493055555555</v>
@@ -2644,19 +2675,13 @@
         <v>7</v>
       </c>
       <c r="P32">
-        <v>32.1025232821369</v>
+        <v>32.1035617640661</v>
       </c>
       <c r="Q32">
-        <v>35.207323309149302</v>
+        <v>35.208148005315998</v>
       </c>
       <c r="R32">
-        <v>698.63501509066396</v>
-      </c>
-      <c r="S32">
-        <v>1</v>
-      </c>
-      <c r="T32" t="s">
-        <v>9</v>
+        <v>694.06039919438695</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.5">
@@ -2667,31 +2692,31 @@
         <v>7</v>
       </c>
       <c r="C33" s="5">
-        <v>32.103941666769799</v>
+        <v>32.103625428383403</v>
       </c>
       <c r="D33" s="5">
-        <v>35.208466874348296</v>
+        <v>35.208835663499798</v>
       </c>
       <c r="E33" s="5">
-        <v>691.99634918653396</v>
+        <v>708.01591994360399</v>
       </c>
       <c r="F33" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" ref="J33:L33" si="28">ABS(C33:C65 - P33:P65)</f>
-        <v>3.7990270369903101E-4</v>
+        <f>ABS(C33:C66 - P33:P66)</f>
+        <v>8.2249484023577679E-6</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="28"/>
-        <v>3.1886903229860764E-4</v>
+        <f>ABS(D33:D66 - Q33:Q66)</f>
+        <v>1.8572878600053855E-4</v>
       </c>
       <c r="L33" s="3">
-        <f t="shared" si="28"/>
-        <v>2.064050007852984</v>
+        <f>ABS(E33:E66 - R33:R66)</f>
+        <v>2.177480945149</v>
       </c>
       <c r="N33" s="1">
         <v>43074.493055555555</v>
@@ -2700,13 +2725,13 @@
         <v>7</v>
       </c>
       <c r="P33">
-        <v>32.1035617640661</v>
+        <v>32.103617203435</v>
       </c>
       <c r="Q33">
-        <v>35.208148005315998</v>
+        <v>35.209021392285798</v>
       </c>
       <c r="R33">
-        <v>694.06039919438695</v>
+        <v>705.83843899845499</v>
       </c>
       <c r="S33">
         <v>1</v>
@@ -2723,31 +2748,31 @@
         <v>7</v>
       </c>
       <c r="C34" s="5">
-        <v>32.103625428383403</v>
+        <v>32.102587987632504</v>
       </c>
       <c r="D34" s="5">
-        <v>35.208835663499798</v>
+        <v>35.207590211238298</v>
       </c>
       <c r="E34" s="5">
-        <v>708.01591994360399</v>
+        <v>693.10852031086995</v>
       </c>
       <c r="F34" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" ref="J34:L34" si="29">ABS(C34:C66 - P34:P66)</f>
-        <v>8.2249484023577679E-6</v>
+        <f>ABS(C34:C67 - P34:P67)</f>
+        <v>3.9966490902543228E-5</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="29"/>
-        <v>1.8572878600053855E-4</v>
+        <f>ABS(D34:D67 - Q34:Q67)</f>
+        <v>1.6562312839596416E-4</v>
       </c>
       <c r="L34" s="3">
-        <f t="shared" si="29"/>
-        <v>2.177480945149</v>
+        <f>ABS(E34:E67 - R34:R67)</f>
+        <v>3.7262528164050082</v>
       </c>
       <c r="N34" s="1">
         <v>43074.493055555555</v>
@@ -2756,13 +2781,13 @@
         <v>7</v>
       </c>
       <c r="P34">
-        <v>32.103617203435</v>
+        <v>32.102548021141601</v>
       </c>
       <c r="Q34">
-        <v>35.209021392285798</v>
+        <v>35.207424588109902</v>
       </c>
       <c r="R34">
-        <v>705.83843899845499</v>
+        <v>696.83477312727496</v>
       </c>
       <c r="S34">
         <v>2</v>
@@ -2779,31 +2804,31 @@
         <v>7</v>
       </c>
       <c r="C35" s="5">
-        <v>32.102587987632504</v>
+        <v>32.103148658443203</v>
       </c>
       <c r="D35" s="5">
-        <v>35.207590211238298</v>
+        <v>35.209685528808599</v>
       </c>
       <c r="E35" s="5">
-        <v>693.10852031086995</v>
+        <v>702.43160948224102</v>
       </c>
       <c r="F35" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" ref="J35:L35" si="30">ABS(C35:C67 - P35:P67)</f>
-        <v>3.9966490902543228E-5</v>
+        <f>ABS(C35:C68 - P35:P68)</f>
+        <v>2.7326154693696481E-5</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" si="30"/>
-        <v>1.6562312839596416E-4</v>
+        <f>ABS(D35:D68 - Q35:Q68)</f>
+        <v>9.4812558401713432E-5</v>
       </c>
       <c r="L35" s="3">
-        <f t="shared" si="30"/>
-        <v>3.7262528164050082</v>
+        <f>ABS(E35:E68 - R35:R68)</f>
+        <v>0.63843930282303063</v>
       </c>
       <c r="N35" s="1">
         <v>43074.493055555555</v>
@@ -2812,13 +2837,13 @@
         <v>7</v>
       </c>
       <c r="P35">
-        <v>32.102548021141601</v>
+        <v>32.103175984597897</v>
       </c>
       <c r="Q35">
-        <v>35.207424588109902</v>
+        <v>35.209590716250197</v>
       </c>
       <c r="R35">
-        <v>696.83477312727496</v>
+        <v>703.07004878506405</v>
       </c>
       <c r="S35">
         <v>1</v>
@@ -2828,59 +2853,101 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A36" s="6">
-        <v>42740.493055555555</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="5">
-        <v>32.103148658443203</v>
-      </c>
-      <c r="D36" s="5">
-        <v>35.209685528808599</v>
-      </c>
-      <c r="E36" s="5">
-        <v>702.43160948224102</v>
-      </c>
-      <c r="F36" s="5">
-        <v>5</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J36" s="3">
-        <f t="shared" ref="J36:L36" si="31">ABS(C36:C68 - P36:P68)</f>
-        <v>2.7326154693696481E-5</v>
-      </c>
-      <c r="K36" s="3">
-        <f t="shared" si="31"/>
-        <v>9.4812558401713432E-5</v>
-      </c>
-      <c r="L36" s="3">
-        <f t="shared" si="31"/>
-        <v>0.63843930282303063</v>
-      </c>
-      <c r="N36" s="1">
-        <v>43074.493055555555</v>
-      </c>
-      <c r="O36" t="s">
-        <v>7</v>
-      </c>
-      <c r="P36">
-        <v>32.103175984597897</v>
-      </c>
-      <c r="Q36">
-        <v>35.209590716250197</v>
-      </c>
-      <c r="R36">
-        <v>703.07004878506405</v>
-      </c>
       <c r="S36">
         <v>5</v>
       </c>
       <c r="T36" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="7">
+        <v>42740.493055555555</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0</v>
+      </c>
+      <c r="E37" s="8">
+        <v>0</v>
+      </c>
+      <c r="F37" s="8">
+        <v>1</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="9">
+        <f>ABS(C32:C64 - P32:P64)</f>
+        <v>32.1025232821369</v>
+      </c>
+      <c r="K37" s="9">
+        <f>ABS(D32:D64 - Q32:Q64)</f>
+        <v>35.207323309149302</v>
+      </c>
+      <c r="L37" s="9">
+        <f>ABS(E32:E64 - R32:R64)</f>
+        <v>698.63501509066396</v>
+      </c>
+      <c r="N37" s="10">
+        <v>43074.493055555555</v>
+      </c>
+      <c r="O37" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P37" s="9">
+        <v>32.1025232821369</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>35.207323309149302</v>
+      </c>
+      <c r="R37" s="9">
+        <v>698.63501509066396</v>
+      </c>
+      <c r="S37" s="9">
+        <v>1</v>
+      </c>
+      <c r="T37" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="I38" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="3">
+        <f>MIN(J4:J35)</f>
+        <v>7.6567682967265682E-6</v>
+      </c>
+      <c r="K38" s="3">
+        <f t="shared" ref="K38:L38" si="26">MIN(K4:K35)</f>
+        <v>1.0492937008166336E-6</v>
+      </c>
+      <c r="L38" s="3">
+        <f t="shared" si="26"/>
+        <v>0.19971407105094841</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="I39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="3">
+        <f>MAX(J4:J35)</f>
+        <v>7.3950631299624092E-4</v>
+      </c>
+      <c r="K39" s="3">
+        <f t="shared" ref="K39:L39" si="27">MAX(K4:K35)</f>
+        <v>1.7462150584037772E-3</v>
+      </c>
+      <c r="L39" s="3">
+        <f t="shared" si="27"/>
+        <v>14.496303975346905</v>
       </c>
     </row>
   </sheetData>
